--- a/Xen Jakaria/Regulator_Drafting_programme/Equation_Preoaration_For_EPRC_Basin.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Equation_Preoaration_For_EPRC_Basin.xlsx
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
